--- a/makurodatabases/固定资产投资构成.xlsx
+++ b/makurodatabases/固定资产投资构成.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitwork\makurodatabases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D0DD00E-73BC-40DD-B7CB-27FE8192B67A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B088D063-73A2-41AE-A012-5282F9215467}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数据整理" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet0" sheetId="1" r:id="rId2"/>
+    <sheet name="原始数据" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -400,24 +400,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -605,6 +605,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-69CD-4894-B9C9-106094444818}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -4833,8 +4838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EE8C8E2-B347-496F-A7A7-F968EC16C626}">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -4870,16 +4875,16 @@
       <c r="J1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="4" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4908,38 +4913,38 @@
         <v>1995</v>
       </c>
       <c r="B3">
-        <f>Sheet0!B3</f>
+        <f>原始数据!B3</f>
         <v>15643.7</v>
       </c>
       <c r="C3">
-        <f>Sheet0!C3/10000</f>
+        <f>原始数据!C3/10000</f>
         <v>3827.2615999999998</v>
       </c>
       <c r="D3">
-        <f>Sheet0!D3/10000</f>
+        <f>原始数据!D3/10000</f>
         <v>3852.9639999999999</v>
       </c>
       <c r="E3">
-        <f>Sheet0!H3</f>
+        <f>原始数据!H3</f>
         <v>3942.5412000000001</v>
       </c>
       <c r="F3">
         <f>B3-C3-D3-E3</f>
         <v>4020.9332000000009</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="5">
         <f>C3/$B3</f>
         <v>0.24465194295467182</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="5">
         <f t="shared" ref="H3:J3" si="0">D3/$B3</f>
         <v>0.24629493022750371</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="5">
         <f t="shared" si="0"/>
         <v>0.25202101804560301</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="5">
         <f t="shared" si="0"/>
         <v>0.25703210877222143</v>
       </c>
@@ -4949,54 +4954,54 @@
         <v>1996</v>
       </c>
       <c r="B4">
-        <f>Sheet0!B4</f>
+        <f>原始数据!B4</f>
         <v>17567.2</v>
       </c>
       <c r="C4">
-        <f>Sheet0!C4/10000</f>
+        <f>原始数据!C4/10000</f>
         <v>4184.4112999999998</v>
       </c>
       <c r="D4">
-        <f>Sheet0!D4/10000</f>
+        <f>原始数据!D4/10000</f>
         <v>4067.8717000000001</v>
       </c>
       <c r="E4">
-        <f>Sheet0!H4</f>
+        <f>原始数据!H4</f>
         <v>4806.3208000000004</v>
       </c>
       <c r="F4">
         <f t="shared" ref="F4:F25" si="1">B4-C4-D4-E4</f>
         <v>4508.5962000000009</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="5">
         <f t="shared" ref="G4:G25" si="2">C4/$B4</f>
         <v>0.23819455007058607</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="5">
         <f t="shared" ref="H4:H25" si="3">D4/$B4</f>
         <v>0.23156061865294411</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="5">
         <f t="shared" ref="I4:I25" si="4">E4/$B4</f>
         <v>0.27359629309167083</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="5">
         <f t="shared" ref="J4:J25" si="5">F4/$B4</f>
         <v>0.25664853818479899</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="5">
         <f>B4/B3-1</f>
         <v>0.12295684524760775</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="5">
         <f t="shared" ref="L4:N4" si="6">C4/C3-1</f>
         <v>9.3317295060259209E-2</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="5">
         <f t="shared" si="6"/>
         <v>5.5777240586727617E-2</v>
       </c>
-      <c r="N4" s="7">
+      <c r="N4" s="5">
         <f t="shared" si="6"/>
         <v>0.21909209217648762</v>
       </c>
@@ -5006,54 +5011,54 @@
         <v>1997</v>
       </c>
       <c r="B5">
-        <f>Sheet0!B5</f>
+        <f>原始数据!B5</f>
         <v>19194.2</v>
       </c>
       <c r="C5">
-        <f>Sheet0!C5/10000</f>
+        <f>原始数据!C5/10000</f>
         <v>3976.625</v>
       </c>
       <c r="D5">
-        <f>Sheet0!D5/10000</f>
+        <f>原始数据!D5/10000</f>
         <v>4102.4526999999998</v>
       </c>
       <c r="E5">
-        <f>Sheet0!H5</f>
+        <f>原始数据!H5</f>
         <v>5744.7717000000002</v>
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
         <v>5370.3506000000007</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="5">
         <f t="shared" si="2"/>
         <v>0.20717847057965427</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="5">
         <f t="shared" si="3"/>
         <v>0.21373397693053109</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="5">
         <f t="shared" si="4"/>
         <v>0.29929727209261131</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="5">
         <f t="shared" si="5"/>
         <v>0.27979028039720333</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="5">
         <f t="shared" ref="K5:K25" si="7">B5/B4-1</f>
         <v>9.2615783961018217E-2</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="5">
         <f t="shared" ref="L5:L25" si="8">C5/C4-1</f>
         <v>-4.9657236132595206E-2</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="5">
         <f t="shared" ref="M5:M25" si="9">D5/D4-1</f>
         <v>8.5010055749790148E-3</v>
       </c>
-      <c r="N5" s="7">
+      <c r="N5" s="5">
         <f t="shared" ref="N5:N25" si="10">E5/E4-1</f>
         <v>0.19525348786539576</v>
       </c>
@@ -5063,54 +5068,54 @@
         <v>1998</v>
       </c>
       <c r="B6">
-        <f>Sheet0!B6</f>
+        <f>原始数据!B6</f>
         <v>22491.4</v>
       </c>
       <c r="C6">
-        <f>Sheet0!C6/10000</f>
+        <f>原始数据!C6/10000</f>
         <v>3873.1024000000002</v>
       </c>
       <c r="D6">
-        <f>Sheet0!D6/10000</f>
+        <f>原始数据!D6/10000</f>
         <v>4697.4938000000002</v>
       </c>
       <c r="E6">
-        <f>Sheet0!H6</f>
+        <f>原始数据!H6</f>
         <v>7669.3018000000002</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
         <v>6251.5020000000013</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="5">
         <f t="shared" si="2"/>
         <v>0.17220370452706368</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="5">
         <f t="shared" si="3"/>
         <v>0.20885733213583857</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="5">
         <f t="shared" si="4"/>
         <v>0.34098819104190936</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="5">
         <f t="shared" si="5"/>
         <v>0.27795077229518844</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="5">
         <f t="shared" si="7"/>
         <v>0.17178105886153117</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="5">
         <f t="shared" si="8"/>
         <v>-2.6032779052588495E-2</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="5">
         <f t="shared" si="9"/>
         <v>0.14504520673693588</v>
       </c>
-      <c r="N6" s="7">
+      <c r="N6" s="5">
         <f t="shared" si="10"/>
         <v>0.33500549725936013</v>
       </c>
@@ -5120,54 +5125,54 @@
         <v>1999</v>
       </c>
       <c r="B7">
-        <f>Sheet0!B7</f>
+        <f>原始数据!B7</f>
         <v>23732</v>
       </c>
       <c r="C7">
-        <f>Sheet0!C7/10000</f>
+        <f>原始数据!C7/10000</f>
         <v>3628.5585000000001</v>
       </c>
       <c r="D7">
-        <f>Sheet0!D7/10000</f>
+        <f>原始数据!D7/10000</f>
         <v>5259.6085000000003</v>
       </c>
       <c r="E7">
-        <f>Sheet0!H7</f>
+        <f>原始数据!H7</f>
         <v>7890.8909999999996</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
         <v>6952.9420000000009</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="5">
         <f t="shared" si="2"/>
         <v>0.15289729057812237</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="5">
         <f t="shared" si="3"/>
         <v>0.22162516854879488</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="5">
         <f t="shared" si="4"/>
         <v>0.33250004213719869</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="5">
         <f t="shared" si="5"/>
         <v>0.29297749873588408</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="5">
         <f t="shared" si="7"/>
         <v>5.5158860720097458E-2</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="5">
         <f t="shared" si="8"/>
         <v>-6.3139022608852291E-2</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="5">
         <f t="shared" si="9"/>
         <v>0.1196626805553207</v>
       </c>
-      <c r="N7" s="7">
+      <c r="N7" s="5">
         <f t="shared" si="10"/>
         <v>2.889300822664187E-2</v>
       </c>
@@ -5177,54 +5182,54 @@
         <v>2000</v>
       </c>
       <c r="B8">
-        <f>Sheet0!B8</f>
+        <f>原始数据!B8</f>
         <v>26221.8</v>
       </c>
       <c r="C8">
-        <f>Sheet0!C8/10000</f>
+        <f>原始数据!C8/10000</f>
         <v>4003.78</v>
       </c>
       <c r="D8">
-        <f>Sheet0!D8/10000</f>
+        <f>原始数据!D8/10000</f>
         <v>6147.42</v>
       </c>
       <c r="E8">
-        <f>Sheet0!H8</f>
+        <f>原始数据!H8</f>
         <v>8530.24</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
         <v>7540.3600000000006</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="5">
         <f t="shared" si="2"/>
         <v>0.15268898397516573</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="5">
         <f t="shared" si="3"/>
         <v>0.23443928334439285</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="5">
         <f t="shared" si="4"/>
         <v>0.32531100077035141</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="5">
         <f t="shared" si="5"/>
         <v>0.28756073191009013</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="5">
         <f t="shared" si="7"/>
         <v>0.10491319737063876</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="5">
         <f t="shared" si="8"/>
         <v>0.10340786844142102</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="5">
         <f t="shared" si="9"/>
         <v>0.16879801985261822</v>
       </c>
-      <c r="N8" s="7">
+      <c r="N8" s="5">
         <f t="shared" si="10"/>
         <v>8.1023676540456613E-2</v>
       </c>
@@ -5234,54 +5239,54 @@
         <v>2001</v>
       </c>
       <c r="B9">
-        <f>Sheet0!B9</f>
+        <f>原始数据!B9</f>
         <v>30001.200000000001</v>
       </c>
       <c r="C9">
-        <f>Sheet0!C9/10000</f>
+        <f>原始数据!C9/10000</f>
         <v>5039.43</v>
       </c>
       <c r="D9">
-        <f>Sheet0!D9/10000</f>
+        <f>原始数据!D9/10000</f>
         <v>7539.36</v>
       </c>
       <c r="E9">
-        <f>Sheet0!H9</f>
+        <f>原始数据!H9</f>
         <v>8995.23</v>
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
         <v>8427.18</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="5">
         <f t="shared" si="2"/>
         <v>0.16797428102875886</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="5">
         <f t="shared" si="3"/>
         <v>0.2513019479220831</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="5">
         <f t="shared" si="4"/>
         <v>0.29982900683972641</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="5">
         <f t="shared" si="5"/>
         <v>0.2808947642094316</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="5">
         <f t="shared" si="7"/>
         <v>0.1441319817861475</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="5">
         <f t="shared" si="8"/>
         <v>0.25866805868454312</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="5">
         <f t="shared" si="9"/>
         <v>0.22642669607737864</v>
       </c>
-      <c r="N9" s="7">
+      <c r="N9" s="5">
         <f t="shared" si="10"/>
         <v>5.4510775781220655E-2</v>
       </c>
@@ -5291,54 +5296,54 @@
         <v>2002</v>
       </c>
       <c r="B10">
-        <f>Sheet0!B10</f>
+        <f>原始数据!B10</f>
         <v>35488.800000000003</v>
       </c>
       <c r="C10">
-        <f>Sheet0!C10/10000</f>
+        <f>原始数据!C10/10000</f>
         <v>6624.7</v>
       </c>
       <c r="D10">
-        <f>Sheet0!D10/10000</f>
+        <f>原始数据!D10/10000</f>
         <v>9029.83</v>
       </c>
       <c r="E10">
-        <f>Sheet0!H10</f>
+        <f>原始数据!H10</f>
         <v>9418.3700000000008</v>
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
         <v>10415.900000000003</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="5">
         <f t="shared" si="2"/>
         <v>0.18667016072676448</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="5">
         <f t="shared" si="3"/>
         <v>0.25444168300985098</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="5">
         <f t="shared" si="4"/>
         <v>0.26538992583575666</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="5">
         <f t="shared" si="5"/>
         <v>0.29349823042762796</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="5">
         <f t="shared" si="7"/>
         <v>0.18291268349266043</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10" s="5">
         <f t="shared" si="8"/>
         <v>0.31457327515214994</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M10" s="5">
         <f t="shared" si="9"/>
         <v>0.19769184652278171</v>
       </c>
-      <c r="N10" s="7">
+      <c r="N10" s="5">
         <f t="shared" si="10"/>
         <v>4.7040487013672916E-2</v>
       </c>
@@ -5348,54 +5353,54 @@
         <v>2003</v>
       </c>
       <c r="B11">
-        <f>Sheet0!B11</f>
+        <f>原始数据!B11</f>
         <v>45811.7</v>
       </c>
       <c r="C11">
-        <f>Sheet0!C11/10000</f>
+        <f>原始数据!C11/10000</f>
         <v>10743.950800000001</v>
       </c>
       <c r="D11">
-        <f>Sheet0!D11/10000</f>
+        <f>原始数据!D11/10000</f>
         <v>11105.2837</v>
       </c>
       <c r="E11">
-        <f>Sheet0!H11</f>
+        <f>原始数据!H11</f>
         <v>13693.081899999999</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
         <v>10269.383599999999</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="5">
         <f t="shared" si="2"/>
         <v>0.23452416740701615</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="5">
         <f t="shared" si="3"/>
         <v>0.24241151714518344</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="5">
         <f t="shared" si="4"/>
         <v>0.29889923098247828</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="5">
         <f t="shared" si="5"/>
         <v>0.22416508446532218</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="5">
         <f t="shared" si="7"/>
         <v>0.29087768535425251</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11" s="5">
         <f t="shared" si="8"/>
         <v>0.62180186272585947</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M11" s="5">
         <f t="shared" si="9"/>
         <v>0.22984416096427074</v>
       </c>
-      <c r="N11" s="7">
+      <c r="N11" s="5">
         <f t="shared" si="10"/>
         <v>0.45386960801072784</v>
       </c>
@@ -5405,54 +5410,54 @@
         <v>2004</v>
       </c>
       <c r="B12">
-        <f>Sheet0!B12</f>
+        <f>原始数据!B12</f>
         <v>59028.19</v>
       </c>
       <c r="C12">
-        <f>Sheet0!C12/10000</f>
+        <f>原始数据!C12/10000</f>
         <v>14657.2</v>
       </c>
       <c r="D12">
-        <f>Sheet0!D12/10000</f>
+        <f>原始数据!D12/10000</f>
         <v>14546.96</v>
       </c>
       <c r="E12">
-        <f>Sheet0!H12</f>
+        <f>原始数据!H12</f>
         <v>17507.457299999998</v>
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
         <v>12316.572700000008</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="5">
         <f t="shared" si="2"/>
         <v>0.24830847769514872</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="5">
         <f t="shared" si="3"/>
         <v>0.24644089544334663</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="5">
         <f t="shared" si="4"/>
         <v>0.29659485239171313</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="5">
         <f t="shared" si="5"/>
         <v>0.20865577446979158</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="5">
         <f t="shared" si="7"/>
         <v>0.28849595190748234</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L12" s="5">
         <f t="shared" si="8"/>
         <v>0.36422813849817715</v>
       </c>
-      <c r="M12" s="7">
+      <c r="M12" s="5">
         <f t="shared" si="9"/>
         <v>0.30991340635449038</v>
       </c>
-      <c r="N12" s="7">
+      <c r="N12" s="5">
         <f t="shared" si="10"/>
         <v>0.27856222783564877</v>
       </c>
@@ -5462,54 +5467,54 @@
         <v>2005</v>
       </c>
       <c r="B13">
-        <f>Sheet0!B13</f>
+        <f>原始数据!B13</f>
         <v>75095.100000000006</v>
       </c>
       <c r="C13">
-        <f>Sheet0!C13/10000</f>
+        <f>原始数据!C13/10000</f>
         <v>20406.578399999999</v>
       </c>
       <c r="D13">
-        <f>Sheet0!D13/10000</f>
+        <f>原始数据!D13/10000</f>
         <v>17098.185300000001</v>
       </c>
       <c r="E13">
-        <f>Sheet0!H13</f>
+        <f>原始数据!H13</f>
         <v>22244.866300000002</v>
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
         <v>15345.470000000008</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="5">
         <f t="shared" si="2"/>
         <v>0.27174314169632902</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="5">
         <f t="shared" si="3"/>
         <v>0.22768709676130666</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="5">
         <f t="shared" si="4"/>
         <v>0.29622260706757164</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="5">
         <f t="shared" si="5"/>
         <v>0.20434715447479274</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K13" s="5">
         <f t="shared" si="7"/>
         <v>0.27219045679699816</v>
       </c>
-      <c r="L13" s="7">
+      <c r="L13" s="5">
         <f t="shared" si="8"/>
         <v>0.39225625631089134</v>
       </c>
-      <c r="M13" s="7">
+      <c r="M13" s="5">
         <f t="shared" si="9"/>
         <v>0.1753785876911742</v>
       </c>
-      <c r="N13" s="7">
+      <c r="N13" s="5">
         <f t="shared" si="10"/>
         <v>0.27059377720144462</v>
       </c>
@@ -5519,54 +5524,54 @@
         <v>2006</v>
       </c>
       <c r="B14">
-        <f>Sheet0!B14</f>
+        <f>原始数据!B14</f>
         <v>93368.68</v>
       </c>
       <c r="C14">
-        <f>Sheet0!C14/10000</f>
+        <f>原始数据!C14/10000</f>
         <v>26336.049900000002</v>
       </c>
       <c r="D14">
-        <f>Sheet0!D14/10000</f>
+        <f>原始数据!D14/10000</f>
         <v>21586.223300000001</v>
       </c>
       <c r="E14">
-        <f>Sheet0!H14</f>
+        <f>原始数据!H14</f>
         <v>26991.804800000002</v>
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
         <v>18454.601999999995</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="5">
         <f t="shared" si="2"/>
         <v>0.28206514111584319</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="5">
         <f t="shared" si="3"/>
         <v>0.23119340768231919</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="5">
         <f t="shared" si="4"/>
         <v>0.28908842665441992</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="5">
         <f t="shared" si="5"/>
         <v>0.19765302454741779</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="5">
         <f t="shared" si="7"/>
         <v>0.24333917925403892</v>
       </c>
-      <c r="L14" s="7">
+      <c r="L14" s="5">
         <f t="shared" si="8"/>
         <v>0.29056666844256474</v>
       </c>
-      <c r="M14" s="7">
+      <c r="M14" s="5">
         <f t="shared" si="9"/>
         <v>0.26248621834739394</v>
       </c>
-      <c r="N14" s="7">
+      <c r="N14" s="5">
         <f t="shared" si="10"/>
         <v>0.21339478673333279</v>
       </c>
@@ -5576,54 +5581,54 @@
         <v>2007</v>
       </c>
       <c r="B15">
-        <f>Sheet0!B15</f>
+        <f>原始数据!B15</f>
         <v>117464.47</v>
       </c>
       <c r="C15">
-        <f>Sheet0!C15/10000</f>
+        <f>原始数据!C15/10000</f>
         <v>35476.724699999999</v>
       </c>
       <c r="D15">
-        <f>Sheet0!D15/10000</f>
+        <f>原始数据!D15/10000</f>
         <v>28619.244299999998</v>
       </c>
       <c r="E15">
-        <f>Sheet0!H15</f>
+        <f>原始数据!H15</f>
         <v>31361.998</v>
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
         <v>22006.503000000012</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="5">
         <f t="shared" si="2"/>
         <v>0.3020208978936354</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="5">
         <f t="shared" si="3"/>
         <v>0.24364170970166552</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="5">
         <f t="shared" si="4"/>
         <v>0.26699135491778919</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="5">
         <f t="shared" si="5"/>
         <v>0.18734603748690998</v>
       </c>
-      <c r="K15" s="7">
+      <c r="K15" s="5">
         <f t="shared" si="7"/>
         <v>0.25807144322914288</v>
       </c>
-      <c r="L15" s="7">
+      <c r="L15" s="5">
         <f t="shared" si="8"/>
         <v>0.34707842803715216</v>
       </c>
-      <c r="M15" s="7">
+      <c r="M15" s="5">
         <f t="shared" si="9"/>
         <v>0.32581062941195449</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N15" s="5">
         <f t="shared" si="10"/>
         <v>0.16190815072877229</v>
       </c>
@@ -5633,54 +5638,54 @@
         <v>2008</v>
       </c>
       <c r="B16">
-        <f>Sheet0!B16</f>
+        <f>原始数据!B16</f>
         <v>148738.29999999999</v>
       </c>
       <c r="C16">
-        <f>Sheet0!C16/10000</f>
+        <f>原始数据!C16/10000</f>
         <v>46368.296900000001</v>
       </c>
       <c r="D16">
-        <f>Sheet0!D16/10000</f>
+        <f>原始数据!D16/10000</f>
         <v>35914.150600000001</v>
       </c>
       <c r="E16">
-        <f>Sheet0!H16</f>
+        <f>原始数据!H16</f>
         <v>38468.703200000004</v>
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
         <v>27987.149299999975</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="5">
         <f t="shared" si="2"/>
         <v>0.31174416340646627</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="5">
         <f t="shared" si="3"/>
         <v>0.24145865994165594</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="5">
         <f t="shared" si="4"/>
         <v>0.25863347369171225</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="5">
         <f t="shared" si="5"/>
         <v>0.18816370296016546</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16" s="5">
         <f t="shared" si="7"/>
         <v>0.26624076199381808</v>
       </c>
-      <c r="L16" s="7">
+      <c r="L16" s="5">
         <f t="shared" si="8"/>
         <v>0.30700613689966705</v>
       </c>
-      <c r="M16" s="7">
+      <c r="M16" s="5">
         <f t="shared" si="9"/>
         <v>0.25489514060998464</v>
       </c>
-      <c r="N16" s="7">
+      <c r="N16" s="5">
         <f t="shared" si="10"/>
         <v>0.22660243776560418</v>
       </c>
@@ -5690,54 +5695,54 @@
         <v>2009</v>
       </c>
       <c r="B17">
-        <f>Sheet0!B17</f>
+        <f>原始数据!B17</f>
         <v>193920.39</v>
       </c>
       <c r="C17">
-        <f>Sheet0!C17/10000</f>
+        <f>原始数据!C17/10000</f>
         <v>58706.067600000002</v>
       </c>
       <c r="D17">
-        <f>Sheet0!D17/10000</f>
+        <f>原始数据!D17/10000</f>
         <v>43127.640399999997</v>
       </c>
       <c r="E17">
-        <f>Sheet0!H17</f>
+        <f>原始数据!H17</f>
         <v>54695.666400000002</v>
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
         <v>37391.015599999999</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="5">
         <f t="shared" si="2"/>
         <v>0.30273282556826542</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="5">
         <f t="shared" si="3"/>
         <v>0.22239868845148256</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="5">
         <f t="shared" si="4"/>
         <v>0.28205216790250887</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="5">
         <f t="shared" si="5"/>
         <v>0.19281631807774313</v>
       </c>
-      <c r="K17" s="7">
+      <c r="K17" s="5">
         <f t="shared" si="7"/>
         <v>0.30376903595106319</v>
       </c>
-      <c r="L17" s="7">
+      <c r="L17" s="5">
         <f t="shared" si="8"/>
         <v>0.26608203287276666</v>
       </c>
-      <c r="M17" s="7">
+      <c r="M17" s="5">
         <f t="shared" si="9"/>
         <v>0.200853693585614</v>
       </c>
-      <c r="N17" s="7">
+      <c r="N17" s="5">
         <f t="shared" si="10"/>
         <v>0.42182246476143237</v>
       </c>
@@ -5747,54 +5752,54 @@
         <v>2010</v>
       </c>
       <c r="B18">
-        <f>Sheet0!B18</f>
+        <f>原始数据!B18</f>
         <v>241430.89</v>
       </c>
       <c r="C18">
-        <f>Sheet0!C18/10000</f>
+        <f>原始数据!C18/10000</f>
         <v>74485.175700000007</v>
       </c>
       <c r="D18">
-        <f>Sheet0!D18/10000</f>
+        <f>原始数据!D18/10000</f>
         <v>57633.087500000001</v>
       </c>
       <c r="E18">
-        <f>Sheet0!H18</f>
+        <f>原始数据!H18</f>
         <v>64808.029699999999</v>
       </c>
       <c r="F18">
         <f t="shared" si="1"/>
         <v>44504.597099999999</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="5">
         <f t="shared" si="2"/>
         <v>0.30851551638649055</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="5">
         <f t="shared" si="3"/>
         <v>0.2387146379653407</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="5">
         <f t="shared" si="4"/>
         <v>0.26843304806605317</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="5">
         <f t="shared" si="5"/>
         <v>0.18433679758211552</v>
       </c>
-      <c r="K18" s="7">
+      <c r="K18" s="5">
         <f t="shared" si="7"/>
         <v>0.24500002294756107</v>
       </c>
-      <c r="L18" s="7">
+      <c r="L18" s="5">
         <f t="shared" si="8"/>
         <v>0.2687815543618528</v>
       </c>
-      <c r="M18" s="7">
+      <c r="M18" s="5">
         <f t="shared" si="9"/>
         <v>0.33633760079301722</v>
       </c>
-      <c r="N18" s="7">
+      <c r="N18" s="5">
         <f t="shared" si="10"/>
         <v>0.18488417758815334</v>
       </c>
@@ -5804,54 +5809,54 @@
         <v>2011</v>
       </c>
       <c r="B19">
-        <f>Sheet0!B19</f>
+        <f>原始数据!B19</f>
         <v>302396.06</v>
       </c>
       <c r="C19">
-        <f>Sheet0!C19/10000</f>
+        <f>原始数据!C19/10000</f>
         <v>102566.3311</v>
       </c>
       <c r="D19">
-        <f>Sheet0!D19/10000</f>
+        <f>原始数据!D19/10000</f>
         <v>75663.696100000001</v>
       </c>
       <c r="E19">
-        <f>Sheet0!H19</f>
+        <f>原始数据!H19</f>
         <v>66945.865399999995</v>
       </c>
       <c r="F19">
         <f t="shared" si="1"/>
         <v>57220.167399999991</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="5">
         <f t="shared" si="2"/>
         <v>0.33917879452529903</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="5">
         <f t="shared" si="3"/>
         <v>0.25021389531331856</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="5">
         <f t="shared" si="4"/>
         <v>0.22138471447015545</v>
       </c>
-      <c r="J19" s="7">
+      <c r="J19" s="5">
         <f t="shared" si="5"/>
         <v>0.1892225956912269</v>
       </c>
-      <c r="K19" s="7">
+      <c r="K19" s="5">
         <f t="shared" si="7"/>
         <v>0.25251603057090155</v>
       </c>
-      <c r="L19" s="7">
+      <c r="L19" s="5">
         <f t="shared" si="8"/>
         <v>0.3770032779824668</v>
       </c>
-      <c r="M19" s="7">
+      <c r="M19" s="5">
         <f t="shared" si="9"/>
         <v>0.31285168610826197</v>
       </c>
-      <c r="N19" s="7">
+      <c r="N19" s="5">
         <f t="shared" si="10"/>
         <v>3.2987204053203767E-2</v>
       </c>
@@ -5861,54 +5866,54 @@
         <v>2012</v>
       </c>
       <c r="B20">
-        <f>Sheet0!B20</f>
+        <f>原始数据!B20</f>
         <v>364854.15</v>
       </c>
       <c r="C20">
-        <f>Sheet0!C20/10000</f>
+        <f>原始数据!C20/10000</f>
         <v>124403.902</v>
       </c>
       <c r="D20">
-        <f>Sheet0!D20/10000</f>
+        <f>原始数据!D20/10000</f>
         <v>92639.360499999995</v>
       </c>
       <c r="E20">
-        <f>Sheet0!H20</f>
+        <f>原始数据!H20</f>
         <v>77171.699699999997</v>
       </c>
       <c r="F20">
         <f t="shared" si="1"/>
         <v>70639.187800000014</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="5">
         <f t="shared" si="2"/>
         <v>0.34096885563724572</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="5">
         <f t="shared" si="3"/>
         <v>0.25390792594794381</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="5">
         <f t="shared" si="4"/>
         <v>0.21151383285622485</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J20" s="5">
         <f t="shared" si="5"/>
         <v>0.19360938555858556</v>
       </c>
-      <c r="K20" s="7">
+      <c r="K20" s="5">
         <f t="shared" si="7"/>
         <v>0.20654399399251444</v>
       </c>
-      <c r="L20" s="7">
+      <c r="L20" s="5">
         <f t="shared" si="8"/>
         <v>0.21291169008189281</v>
       </c>
-      <c r="M20" s="7">
+      <c r="M20" s="5">
         <f t="shared" si="9"/>
         <v>0.22435679559671939</v>
       </c>
-      <c r="N20" s="7">
+      <c r="N20" s="5">
         <f t="shared" si="10"/>
         <v>0.15274780957570533</v>
       </c>
@@ -5918,54 +5923,54 @@
         <v>2013</v>
       </c>
       <c r="B21">
-        <f>Sheet0!B21</f>
+        <f>原始数据!B21</f>
         <v>436528</v>
       </c>
       <c r="C21">
-        <f>Sheet0!C21/10000</f>
+        <f>原始数据!C21/10000</f>
         <v>147584.43400000001</v>
       </c>
       <c r="D21">
-        <f>Sheet0!D21/10000</f>
+        <f>原始数据!D21/10000</f>
         <v>111379.6369</v>
       </c>
       <c r="E21">
-        <f>Sheet0!H21</f>
+        <f>原始数据!H21</f>
         <v>93621.018200000006</v>
       </c>
       <c r="F21">
         <f t="shared" si="1"/>
         <v>83942.910900000003</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="5">
         <f t="shared" si="2"/>
         <v>0.3380869818201811</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="5">
         <f t="shared" si="3"/>
         <v>0.25514889514532857</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="5">
         <f t="shared" si="4"/>
         <v>0.21446738399369572</v>
       </c>
-      <c r="J21" s="7">
+      <c r="J21" s="5">
         <f t="shared" si="5"/>
         <v>0.19229673904079464</v>
       </c>
-      <c r="K21" s="7">
+      <c r="K21" s="5">
         <f t="shared" si="7"/>
         <v>0.19644520968173174</v>
       </c>
-      <c r="L21" s="7">
+      <c r="L21" s="5">
         <f t="shared" si="8"/>
         <v>0.18633283705200832</v>
       </c>
-      <c r="M21" s="7">
+      <c r="M21" s="5">
         <f t="shared" si="9"/>
         <v>0.20229280835763119</v>
       </c>
-      <c r="N21" s="7">
+      <c r="N21" s="5">
         <f t="shared" si="10"/>
         <v>0.21315221206667312</v>
       </c>
@@ -5975,54 +5980,54 @@
         <v>2014</v>
       </c>
       <c r="B22">
-        <f>Sheet0!B22</f>
+        <f>原始数据!B22</f>
         <v>501264.87</v>
       </c>
       <c r="C22">
-        <f>Sheet0!C22/10000</f>
+        <f>原始数据!C22/10000</f>
         <v>166897.74249999999</v>
       </c>
       <c r="D22">
-        <f>Sheet0!D22/10000</f>
+        <f>原始数据!D22/10000</f>
         <v>123558.2427</v>
       </c>
       <c r="E22">
-        <f>Sheet0!H22</f>
+        <f>原始数据!H22</f>
         <v>111938.958</v>
       </c>
       <c r="F22">
         <f t="shared" si="1"/>
         <v>98869.926800000001</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="5">
         <f t="shared" si="2"/>
         <v>0.33295319997190309</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="5">
         <f t="shared" si="3"/>
         <v>0.24649292239450174</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="5">
         <f t="shared" si="4"/>
         <v>0.2233129921911344</v>
       </c>
-      <c r="J22" s="7">
+      <c r="J22" s="5">
         <f t="shared" si="5"/>
         <v>0.19724088544246079</v>
       </c>
-      <c r="K22" s="7">
+      <c r="K22" s="5">
         <f t="shared" si="7"/>
         <v>0.14829946761719759</v>
       </c>
-      <c r="L22" s="7">
+      <c r="L22" s="5">
         <f t="shared" si="8"/>
         <v>0.13086277445763672</v>
       </c>
-      <c r="M22" s="7">
+      <c r="M22" s="5">
         <f t="shared" si="9"/>
         <v>0.10934319898110578</v>
       </c>
-      <c r="N22" s="7">
+      <c r="N22" s="5">
         <f t="shared" si="10"/>
         <v>0.19566054879757755</v>
       </c>
@@ -6032,54 +6037,54 @@
         <v>2015</v>
       </c>
       <c r="B23">
-        <f>Sheet0!B23</f>
+        <f>原始数据!B23</f>
         <v>551590</v>
       </c>
       <c r="C23">
-        <f>Sheet0!C23/10000</f>
+        <f>原始数据!C23/10000</f>
         <v>180233.40220000001</v>
       </c>
       <c r="D23">
-        <f>Sheet0!D23/10000</f>
+        <f>原始数据!D23/10000</f>
         <v>126706.1569</v>
       </c>
       <c r="E23">
-        <f>Sheet0!H23</f>
+        <f>原始数据!H23</f>
         <v>131363.4725</v>
       </c>
       <c r="F23">
         <f t="shared" si="1"/>
         <v>113286.96839999998</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="5">
         <f t="shared" si="2"/>
         <v>0.32675248318497435</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="5">
         <f t="shared" si="3"/>
         <v>0.22971075780924238</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="5">
         <f t="shared" si="4"/>
         <v>0.23815419514494462</v>
       </c>
-      <c r="J23" s="7">
+      <c r="J23" s="5">
         <f t="shared" si="5"/>
         <v>0.20538256386083864</v>
       </c>
-      <c r="K23" s="7">
+      <c r="K23" s="5">
         <f t="shared" si="7"/>
         <v>0.10039628350576413</v>
       </c>
-      <c r="L23" s="7">
+      <c r="L23" s="5">
         <f t="shared" si="8"/>
         <v>7.9903176042060764E-2</v>
       </c>
-      <c r="M23" s="7">
+      <c r="M23" s="5">
         <f t="shared" si="9"/>
         <v>2.5477168752255253E-2</v>
       </c>
-      <c r="N23" s="7">
+      <c r="N23" s="5">
         <f t="shared" si="10"/>
         <v>0.17352774089606959</v>
       </c>
@@ -6089,54 +6094,54 @@
         <v>2016</v>
       </c>
       <c r="B24">
-        <f>Sheet0!B24</f>
+        <f>原始数据!B24</f>
         <v>596501</v>
       </c>
       <c r="C24">
-        <f>Sheet0!C24/10000</f>
+        <f>原始数据!C24/10000</f>
         <v>187835.97760000001</v>
       </c>
       <c r="D24">
-        <f>Sheet0!D24/10000</f>
+        <f>原始数据!D24/10000</f>
         <v>135283.69409999999</v>
       </c>
       <c r="E24">
-        <f>Sheet0!H24</f>
+        <f>原始数据!H24</f>
         <v>152011.68470000001</v>
       </c>
       <c r="F24">
         <f t="shared" si="1"/>
         <v>121369.64360000004</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="5">
         <f t="shared" si="2"/>
         <v>0.31489633311595455</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H24" s="5">
         <f t="shared" si="3"/>
         <v>0.22679541878387463</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="5">
         <f t="shared" si="4"/>
         <v>0.25483894360612974</v>
       </c>
-      <c r="J24" s="7">
+      <c r="J24" s="5">
         <f t="shared" si="5"/>
         <v>0.20346930449404116</v>
       </c>
-      <c r="K24" s="7">
+      <c r="K24" s="5">
         <f t="shared" si="7"/>
         <v>8.1420982976486256E-2</v>
       </c>
-      <c r="L24" s="7">
+      <c r="L24" s="5">
         <f t="shared" si="8"/>
         <v>4.2181833706737892E-2</v>
       </c>
-      <c r="M24" s="7">
+      <c r="M24" s="5">
         <f t="shared" si="9"/>
         <v>6.7696293612390379E-2</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N24" s="5">
         <f t="shared" si="10"/>
         <v>0.15718381835559359</v>
       </c>
@@ -6146,54 +6151,54 @@
         <v>2017</v>
       </c>
       <c r="B25">
-        <f>Sheet0!B25</f>
+        <f>原始数据!B25</f>
         <v>631684</v>
       </c>
       <c r="C25">
-        <f>Sheet0!C25/10000</f>
+        <f>原始数据!C25/10000</f>
         <v>193615.7</v>
       </c>
       <c r="D25">
-        <f>Sheet0!D25/10000</f>
+        <f>原始数据!D25/10000</f>
         <v>139733.5</v>
       </c>
       <c r="E25">
-        <f>Sheet0!H25</f>
+        <f>原始数据!H25</f>
         <v>173085.2</v>
       </c>
       <c r="F25">
         <f t="shared" si="1"/>
         <v>125249.59999999998</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G25" s="5">
         <f t="shared" si="2"/>
         <v>0.30650720930085296</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H25" s="5">
         <f t="shared" si="3"/>
         <v>0.22120791408362409</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I25" s="5">
         <f t="shared" si="4"/>
         <v>0.27400599033694062</v>
       </c>
-      <c r="J25" s="7">
+      <c r="J25" s="5">
         <f t="shared" si="5"/>
         <v>0.19827888627858228</v>
       </c>
-      <c r="K25" s="7">
+      <c r="K25" s="5">
         <f t="shared" si="7"/>
         <v>5.898229843705205E-2</v>
       </c>
-      <c r="L25" s="7">
+      <c r="L25" s="5">
         <f t="shared" si="8"/>
         <v>3.0770049879943695E-2</v>
       </c>
-      <c r="M25" s="7">
+      <c r="M25" s="5">
         <f t="shared" si="9"/>
         <v>3.2892403845143026E-2</v>
       </c>
-      <c r="N25" s="7">
+      <c r="N25" s="5">
         <f t="shared" si="10"/>
         <v>0.13863089105017989</v>
       </c>
@@ -6220,25 +6225,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="51.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>7</v>
       </c>
       <c r="H1" t="s">
@@ -6246,25 +6251,25 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="7" t="s">
         <v>9</v>
       </c>
       <c r="H2" t="s">
@@ -6315,7 +6320,7 @@
         <v>29493822</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H27" si="0">SUM(E4:G4)/10000</f>
+        <f t="shared" ref="H4:H25" si="0">SUM(E4:G4)/10000</f>
         <v>4806.3208000000004</v>
       </c>
     </row>
@@ -6891,6 +6896,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1"/>
+    <mergeCell ref="A2"/>
+    <mergeCell ref="B1"/>
+    <mergeCell ref="C1"/>
+    <mergeCell ref="D1"/>
     <mergeCell ref="E1"/>
     <mergeCell ref="F1"/>
     <mergeCell ref="G1"/>
@@ -6900,11 +6910,6 @@
     <mergeCell ref="E2"/>
     <mergeCell ref="F2"/>
     <mergeCell ref="G2"/>
-    <mergeCell ref="A1"/>
-    <mergeCell ref="A2"/>
-    <mergeCell ref="B1"/>
-    <mergeCell ref="C1"/>
-    <mergeCell ref="D1"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
